--- a/SpringBoot-Excel/src/main/resources/excelTemplate/excelTemplate.xlsx
+++ b/SpringBoot-Excel/src/main/resources/excelTemplate/excelTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpringLearning\SpringBoot-Excel\src\main\resources\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586FF830-4F41-4317-88F9-9C82A9B77FAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7BBC60-1270-4591-9ED8-5EE4BB2250CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t>立林小区八月份账单</t>
-  </si>
   <si>
     <t/>
   </si>
@@ -39,12 +36,49 @@
   <si>
     <t>总额</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月份账单</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -65,15 +99,22 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,7 +155,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,7 +476,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -447,38 +488,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/SpringBoot-Excel/src/main/resources/excelTemplate/excelTemplate.xlsx
+++ b/SpringBoot-Excel/src/main/resources/excelTemplate/excelTemplate.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpringLearning\SpringBoot-Excel\src\main\resources\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\We\Project\SpringLearning\SpringBoot-Excel\src\main\resources\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7BBC60-1270-4591-9ED8-5EE4BB2250CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5532B7E-0C40-46E8-BCB5-AE5AABDB0D9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="账单" sheetId="1" r:id="rId1"/>
+    <sheet name="2019-9" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -146,6 +146,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -153,9 +156,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,10 +476,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -487,21 +487,21 @@
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
